--- a/Documentation/Charts.xlsx
+++ b/Documentation/Charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
-    <t>Operation Instrumentation Binary Search</t>
+    <t>Worst</t>
   </si>
   <si>
-    <t>Ilość operacji</t>
+    <t>Liczba</t>
   </si>
   <si>
-    <t>t[ms]</t>
+    <t>Czas</t>
   </si>
   <si>
-    <t>Operation Instrumentation Linear Search</t>
+    <t>Ilośc operacji</t>
   </si>
   <si>
-    <t>Indeks tablicy</t>
+    <t>Przyzwoita</t>
+  </si>
+  <si>
+    <t>Najlepsza</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Najgorsza</t>
+  </si>
+  <si>
+    <t>Ilość dzieleń w danej metodzie</t>
+  </si>
+  <si>
+    <t>Ilość czasu wykonania danej metody [s]</t>
   </si>
 </sst>
 </file>
@@ -41,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -52,15 +67,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -68,16 +101,273 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -102,35 +392,313 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="8"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres czasu dla wszystkich metod [s]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$J$4</c:f>
+              <c:f>Arkusz1!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t[ms]</c:v>
+                  <c:v>Najgorsza</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$G$19:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$H$19:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.171999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1377.2860000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22361.518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213617.682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CBE-4F40-A117-EB0D08ACD933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Przyzwoita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$G$19:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$I$19:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CBE-4F40-A117-EB0D08ACD933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Najlepsza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -153,94 +721,76 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$H$5:$H$15</c:f>
+              <c:f>Arkusz1!$G$19:$G$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1009139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>10091401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>100914061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>1009140611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>10091406133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>100914061337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>1009140613399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$J$5:$J$15</c:f>
+              <c:f>Arkusz1!$J$19:$J$26</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.2769999999999999E-4</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7106000000000001E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9935999999999999E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9935999999999999E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8489000000000002E-3</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2764999999999999E-3</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5595000000000002E-3</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4148E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.2700999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.9806999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8359999999999993E-3</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB5C-4886-B3AB-3386CBA8CEE6}"/>
+              <c16:uniqueId val="{00000002-7CBE-4F40-A117-EB0D08ACD933}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -252,31 +802,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="729254528"/>
-        <c:axId val="729256608"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="729254528"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="698431631"/>
+        <c:axId val="698434959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="698431631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -285,8 +823,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -313,12 +851,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729256608"/>
+        <c:crossAx val="698434959"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="729256608"/>
+        <c:axId val="698434959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,20 +879,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -375,9 +910,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729254528"/>
+        <c:crossAx val="698431631"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -387,6 +922,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -438,28 +1005,89 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres czasu dla</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> metody przyzwoitej i najlepszej [s]</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$I$4</c:f>
+              <c:f>Arkusz1!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ilość operacji</c:v>
+                  <c:v>Przyzwoita</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -482,94 +1110,187 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$H$5:$H$15</c:f>
+              <c:f>Arkusz1!$G$19:$G$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1009139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>10091401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>100914061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>1009140611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>10091406133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>100914061337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>1009140613399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$I$5:$I$15</c:f>
+              <c:f>Arkusz1!$I$19:$I$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>693</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1488</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2583</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3978</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5673</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7668</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9963</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12558</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15453</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4A2-429F-9C3F-F0C43EB7ADEA}"/>
+              <c16:uniqueId val="{00000000-E31A-4E40-9EB4-02AD2347F259}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Najlepsza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$G$19:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$19:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E31A-4E40-9EB4-02AD2347F259}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -581,31 +1302,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="767137984"/>
-        <c:axId val="767136736"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="767137984"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="648011839"/>
+        <c:axId val="648012671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="648011839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -614,8 +1323,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -642,12 +1351,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767136736"/>
+        <c:crossAx val="648012671"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="767136736"/>
+        <c:axId val="648012671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,20 +1379,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -704,9 +1410,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767137984"/>
+        <c:crossAx val="648011839"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -716,6 +1422,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -760,35 +1498,96 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres ilości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dzieleń dla wszystkich metod</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$C$4</c:f>
+              <c:f>Arkusz1!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t[ms]</c:v>
+                  <c:v>Najgorsza</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -811,70 +1610,298 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$11</c:f>
+              <c:f>Arkusz1!$B$19:$B$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>100913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>1009139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>10091401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>100914061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>1009140611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178</c:v>
+                  <c:v>10091406133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233</c:v>
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$C$5:$C$11</c:f>
+              <c:f>Arkusz1!$C$19:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7500000000000002E-4</c:v>
+                  <c:v>25228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2769999999999999E-4</c:v>
+                  <c:v>252284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5530000000000003E-4</c:v>
+                  <c:v>2522850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0549999999999999E-3</c:v>
+                  <c:v>25228515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2830000000000001E-3</c:v>
+                  <c:v>252285152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7106000000000001E-3</c:v>
+                  <c:v>2522851533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1383000000000001E-3</c:v>
+                  <c:v>25228515334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252285153349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7EB-4306-8D79-F059F1692CB5}"/>
+              <c16:uniqueId val="{00000000-49C1-42FA-95FB-847B8E1065BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Przyzwoita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$19:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$19:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>317668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1004558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49C1-42FA-95FB-847B8E1065BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Najlepsza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$19:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$19:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-49C1-42FA-95FB-847B8E1065BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -886,31 +1913,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="767141728"/>
-        <c:axId val="767135072"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="767141728"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="658986943"/>
+        <c:axId val="658992351"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="658986943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -919,8 +1934,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -947,12 +1962,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767135072"/>
+        <c:crossAx val="658992351"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="767135072"/>
+        <c:axId val="658992351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,20 +1990,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1009,9 +2021,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767141728"/>
+        <c:crossAx val="658986943"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1021,6 +2033,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1072,28 +2116,89 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres ilości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dzieleń dla metody przyzwoitej i najlepszej</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$J$4</c:f>
+              <c:f>Arkusz1!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t[ms]</c:v>
+                  <c:v>Przyzwoita</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1116,94 +2221,187 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$I$5:$I$15</c:f>
+              <c:f>Arkusz1!$B$19:$B$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>100913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198</c:v>
+                  <c:v>1009139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>693</c:v>
+                  <c:v>10091401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1488</c:v>
+                  <c:v>100914061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2583</c:v>
+                  <c:v>1009140611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3978</c:v>
+                  <c:v>10091406133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5673</c:v>
+                  <c:v>100914061337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7668</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9963</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12558</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15453</c:v>
+                  <c:v>1009140613399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$J$5:$J$15</c:f>
+              <c:f>Arkusz1!$D$19:$D$26</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.2769999999999999E-4</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7106000000000001E-3</c:v>
+                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9935999999999999E-3</c:v>
+                  <c:v>3175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9935999999999999E-3</c:v>
+                  <c:v>10044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8489000000000002E-3</c:v>
+                  <c:v>31765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2764999999999999E-3</c:v>
+                  <c:v>100454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5595000000000002E-3</c:v>
+                  <c:v>317668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4148E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.2700999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.9806999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8359999999999993E-3</c:v>
+                  <c:v>1004558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DE8-4F87-99F8-2BAD11045642}"/>
+              <c16:uniqueId val="{00000000-4EEA-41DD-BBBB-E55D80419A76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Najlepsza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$19:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$19:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4EEA-41DD-BBBB-E55D80419A76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1215,31 +2413,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="767137984"/>
-        <c:axId val="767142976"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="767137984"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="653690335"/>
+        <c:axId val="653693247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="653690335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1248,8 +2434,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1276,12 +2462,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767142976"/>
+        <c:crossAx val="653693247"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="767142976"/>
+        <c:axId val="653693247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,20 +2490,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1338,9 +2521,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767137984"/>
+        <c:crossAx val="653690335"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1350,6 +2533,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1388,8 +2603,39 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1434,8 +2680,39 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1480,7 +2757,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1507,8 +2784,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1609,7 +2886,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1641,10 +2918,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1684,23 +2961,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1805,8 +3081,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1938,20 +3214,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1965,17 +3240,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1996,7 +3260,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2023,8 +3287,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2125,7 +3389,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2157,10 +3421,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2200,23 +3464,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2321,8 +3584,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2454,20 +3717,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2481,17 +3743,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2512,7 +3763,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2539,8 +3790,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2641,7 +3892,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2673,10 +3924,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2716,23 +3967,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2837,8 +4087,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2970,20 +4220,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2997,17 +4246,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3028,7 +4266,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3055,8 +4293,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3157,7 +4395,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3189,10 +4427,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3232,23 +4470,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3353,8 +4590,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3486,20 +4723,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3513,17 +4749,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3547,20 +4772,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3577,20 +4802,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3608,19 +4833,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3638,19 +4863,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3931,209 +5156,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>100913</v>
+      </c>
+      <c r="C5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25228</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100913</v>
+      </c>
+      <c r="G5">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>316</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100913</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>1009139</v>
+      </c>
+      <c r="C6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>252284</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1009139</v>
+      </c>
+      <c r="G6">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1009139</v>
+      </c>
+      <c r="K6">
+        <v>1E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>10091401</v>
+      </c>
+      <c r="C7">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2522850</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10091401</v>
+      </c>
+      <c r="G7">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3175</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10091401</v>
+      </c>
+      <c r="K7">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>100914061</v>
+      </c>
+      <c r="C8">
+        <v>7.0170000000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25228515</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100914061</v>
+      </c>
+      <c r="G8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10044</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100914061</v>
+      </c>
+      <c r="K8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>1009140611</v>
+      </c>
+      <c r="C9">
+        <v>75.171999999999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>252285152</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1009140611</v>
+      </c>
+      <c r="G9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31765</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1009140611</v>
+      </c>
+      <c r="K9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15883</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>10091406133</v>
+      </c>
+      <c r="C10">
+        <v>1377.2860000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2522851533</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10091406133</v>
+      </c>
+      <c r="G10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>100454</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10091406133</v>
+      </c>
+      <c r="K10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>50228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>100914061337</v>
+      </c>
+      <c r="C11">
+        <v>22361.518</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25228515334</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100914061337</v>
+      </c>
+      <c r="G11">
+        <v>0.112</v>
+      </c>
+      <c r="H11" s="1">
+        <v>317668</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100914061337</v>
+      </c>
+      <c r="K11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>158835</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>1009140613399</v>
+      </c>
+      <c r="C12">
+        <v>213617.682</v>
+      </c>
+      <c r="D12" s="1">
+        <v>252285153349</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1009140613399</v>
+      </c>
+      <c r="G12">
+        <v>0.37</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1004558</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1009140613399</v>
+      </c>
+      <c r="K12">
+        <v>0.37</v>
+      </c>
+      <c r="L12" s="1">
+        <v>502280</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C5:C12)</f>
+        <v>237439.53899999999</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(D5:D12)</f>
+        <v>280316834245</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G5:G12)</f>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SUM(H5:H12)</f>
+        <v>1468983</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K5:K12)</f>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SUM(L5:L12)</f>
+        <v>734498</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="E18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
+      <c r="H18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.7500000000000002E-4</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>4.2769999999999999E-4</v>
+    <row r="19" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
+        <v>100913</v>
+      </c>
+      <c r="C19" s="9">
+        <v>25228</v>
+      </c>
+      <c r="D19" s="3">
+        <v>316</v>
+      </c>
+      <c r="E19" s="4">
+        <v>159</v>
+      </c>
+      <c r="G19" s="13">
+        <v>100913</v>
+      </c>
+      <c r="H19" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.2769999999999999E-4</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>198</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.7106000000000001E-3</v>
+    <row r="20" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
+        <v>1009139</v>
+      </c>
+      <c r="C20" s="10">
+        <v>252284</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E20" s="6">
+        <v>502</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1009139</v>
+      </c>
+      <c r="H20" s="20">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.5530000000000003E-4</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>693</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.9935999999999999E-3</v>
+    <row r="21" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13">
+        <v>10091401</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2522850</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3175</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1588</v>
+      </c>
+      <c r="G21" s="13">
+        <v>10091401</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>89</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.0549999999999999E-3</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>1488</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2.9935999999999999E-3</v>
+    <row r="22" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
+        <v>100914061</v>
+      </c>
+      <c r="C22" s="10">
+        <v>25228515</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10044</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5023</v>
+      </c>
+      <c r="G22" s="13">
+        <v>100914061</v>
+      </c>
+      <c r="H22" s="20">
+        <v>7.0170000000000003</v>
+      </c>
+      <c r="I22" s="21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J22" s="22">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>130</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2830000000000001E-3</v>
-      </c>
-      <c r="H9">
-        <v>40</v>
-      </c>
-      <c r="I9">
-        <v>2583</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3.8489000000000002E-3</v>
+    <row r="23" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
+        <v>1009140611</v>
+      </c>
+      <c r="C23" s="10">
+        <v>252285152</v>
+      </c>
+      <c r="D23" s="5">
+        <v>31765</v>
+      </c>
+      <c r="E23" s="6">
+        <v>15883</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1009140611</v>
+      </c>
+      <c r="H23" s="20">
+        <v>75.171999999999997</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J23" s="22">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>178</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.7106000000000001E-3</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10">
-        <v>3978</v>
-      </c>
-      <c r="J10" s="2">
-        <v>4.2764999999999999E-3</v>
+    <row r="24" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
+        <v>10091406133</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2522851533</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100454</v>
+      </c>
+      <c r="E24" s="6">
+        <v>50228</v>
+      </c>
+      <c r="G24" s="13">
+        <v>10091406133</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1377.2860000000001</v>
+      </c>
+      <c r="I24" s="21">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J24" s="22">
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>233</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.1383000000000001E-3</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>5673</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5.5595000000000002E-3</v>
+    <row r="25" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
+        <v>100914061337</v>
+      </c>
+      <c r="C25" s="10">
+        <v>25228515334</v>
+      </c>
+      <c r="D25" s="5">
+        <v>317668</v>
+      </c>
+      <c r="E25" s="6">
+        <v>158835</v>
+      </c>
+      <c r="G25" s="13">
+        <v>100914061337</v>
+      </c>
+      <c r="H25" s="20">
+        <v>22361.518</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0.112</v>
+      </c>
+      <c r="J25" s="22">
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>70</v>
-      </c>
-      <c r="I12">
-        <v>7668</v>
-      </c>
-      <c r="J12" s="2">
-        <v>6.4148E-3</v>
+    <row r="26" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
+        <v>1009140613399</v>
+      </c>
+      <c r="C26" s="11">
+        <v>252285153349</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1004558</v>
+      </c>
+      <c r="E26" s="8">
+        <v>502280</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1009140613399</v>
+      </c>
+      <c r="H26" s="23">
+        <v>213617.682</v>
+      </c>
+      <c r="I26" s="24">
+        <v>0.37</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <v>80</v>
-      </c>
-      <c r="I13">
-        <v>9963</v>
-      </c>
-      <c r="J13" s="2">
-        <v>7.2700999999999998E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>90</v>
-      </c>
-      <c r="I14">
-        <v>12558</v>
-      </c>
-      <c r="J14" s="2">
-        <v>8.9806999999999994E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>15453</v>
-      </c>
-      <c r="J15" s="2">
-        <v>9.8359999999999993E-3</v>
-      </c>
-    </row>
+    <row r="27" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="H17:J17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>